--- a/data/income_statement/2digits/total/74_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/74_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>74-Other professional, scientific and technical activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>74-Other professional, scientific and technical activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>639463.2121399998</v>
+        <v>639463.21214</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>798190.8247800001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>980971.4332699998</v>
+        <v>981329.00356</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1222543.41602</v>
+        <v>1223033.75643</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1715531.91217</v>
+        <v>1717291.11901</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2414066.37828</v>
+        <v>2422541.57375</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3206382.22108</v>
+        <v>3248299.05283</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4142572.40884</v>
+        <v>4163175.079580001</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>5121355.044389999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>5172128.97782</v>
+        <v>5185470.61679</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5810826.55566</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6285363.107869999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7536087.88</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>552266.50876</v>
@@ -995,37 +906,42 @@
         <v>711654.19465</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>858382.40568</v>
+        <v>858739.9759700001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1069366.3249</v>
+        <v>1069815.87105</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1536636.73894</v>
+        <v>1538277.53801</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2154319.27989</v>
+        <v>2162727.77867</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2871927.78076</v>
+        <v>2911046.295639999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3756655.915709999</v>
+        <v>3777128.80758</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>4558905.01547</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4600409.597159999</v>
+        <v>4613244.435719999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5012347.78442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5450652.446660001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6407970.594</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>65998.10964</v>
@@ -1037,16 +953,16 @@
         <v>97246.09600999999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>130059.95546</v>
+        <v>130100.74972</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>147922.52541</v>
+        <v>148016.85541</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>199340.40628</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>275913.26851</v>
+        <v>278347.03497</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>302024.14151</v>
@@ -1055,16 +971,21 @@
         <v>460139.37577</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>478446.5430599999</v>
+        <v>478890.15458</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>679130.04224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>691965.4505799999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>931518.8320000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>21198.59374</v>
@@ -1079,37 +1000,42 @@
         <v>23117.13566</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>30972.64782000001</v>
+        <v>30996.72558999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>60406.69211</v>
+        <v>60473.38880000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>58541.17180999999</v>
+        <v>58905.72222</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>83892.35162</v>
+        <v>84022.13049000001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>102310.65315</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>93272.83760000001</v>
+        <v>93336.02648999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>119348.729</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>142745.21063</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>196598.454</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>3459.81537</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>3835.52823</v>
+        <v>3835.528229999999</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>5120.22593</v>
@@ -1118,37 +1044,42 @@
         <v>8597.88126</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>11703.18965</v>
+        <v>11707.07986</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>15378.09677</v>
+        <v>15391.07682</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>24805.7997</v>
+        <v>24878.31172</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>24768.26582</v>
+        <v>25393.53876</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>41811.39692</v>
+        <v>41811.39691999998</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>48122.91438000001</v>
+        <v>48135.77455</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>71785.46773999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>94147.40363</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>94650.599</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2811.66124</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>3262.099470000001</v>
+        <v>3262.09947</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>3679.95045</v>
@@ -1157,34 +1088,39 @@
         <v>6738.76385</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10267.80634</v>
+        <v>10269.55799</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>13971.75552</v>
+        <v>13984.73557</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>16890.61116</v>
+        <v>16953.44471</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>20163.99547</v>
+        <v>20789.26841</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>38646.56077</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>45954.01221</v>
+        <v>45966.39314000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>69572.8545</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>70592.12377999998</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>80724.55</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>566.8882799999999</v>
+        <v>566.88828</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>430.0129700000001</v>
@@ -1196,13 +1132,13 @@
         <v>785.67698</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>998.7046599999999</v>
+        <v>1000.84322</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>840.02808</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>6436.9867</v>
+        <v>6445.006069999999</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>1679.64026</v>
@@ -1214,13 +1150,18 @@
         <v>1264.61913</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>920.2705500000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>22240.79989999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>9864.411</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>81.26585</v>
@@ -1241,7 +1182,7 @@
         <v>566.3131699999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1478.20184</v>
+        <v>1479.86094</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>2924.630090000001</v>
@@ -1250,55 +1191,65 @@
         <v>1394.44645</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>904.28304</v>
+        <v>904.7622800000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1292.34269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1314.47995</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4061.638</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>636003.3967700001</v>
+        <v>636003.39677</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>794355.29655</v>
+        <v>794355.2965500002</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>975851.2073400001</v>
+        <v>976208.7776299999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1213945.53476</v>
+        <v>1214435.87517</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1703828.72252</v>
+        <v>1705584.03915</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2398688.28151</v>
+        <v>2407150.49693</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3181576.421380001</v>
+        <v>3223420.74111</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4117804.143019999</v>
+        <v>4137781.54082</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5079543.647469999</v>
+        <v>5079543.64747</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5124006.06344</v>
+        <v>5137334.84224</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5739041.08792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6191215.704240001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7441437.281</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>419741.19696</v>
@@ -1307,46 +1258,51 @@
         <v>548304.20199</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>655767.00552</v>
+        <v>656046.6577199999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>824074.25997</v>
+        <v>824587.7488699999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1125588.86201</v>
+        <v>1127184.73554</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1519275.13563</v>
+        <v>1525454.50759</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2126467.65125</v>
+        <v>2157957.34596</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2852153.21129</v>
+        <v>2869885.96541</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>3577784.06272</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3560003.16026</v>
+        <v>3569581.210199999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3995197.66316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4406559.04692</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5334078.122</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>47889.33967999999</v>
+        <v>47889.33968</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>67173.27057000001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>71561.72579000001</v>
+        <v>71561.72579</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>78056.62549999999</v>
@@ -1358,25 +1314,30 @@
         <v>128539.32346</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>215965.91165</v>
+        <v>216099.10607</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>196957.07038</v>
+        <v>212756.73496</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>287105.0125700001</v>
+        <v>287105.01257</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>350439.81414</v>
+        <v>351791.4990599999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>289385.17645</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>296661.3484600001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>368689.109</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>106569.29689</v>
@@ -1385,37 +1346,42 @@
         <v>172736.78384</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>186663.34933</v>
+        <v>186943.00153</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>215633.61155</v>
+        <v>215937.02851</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>231447.02252</v>
+        <v>231798.07428</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>299114.66532</v>
+        <v>300317.28939</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>490768.78061</v>
+        <v>495798.35104</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>836927.8615199999</v>
+        <v>836965.5599100001</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>784228.1938199999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>636565.06774</v>
+        <v>640227.52938</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>768434.4045500001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1067296.6045</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1764556.326</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>256087.37303</v>
@@ -1427,37 +1393,42 @@
         <v>395356.22775</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>529005.11777</v>
+        <v>529174.9120199999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>736576.7887099999</v>
+        <v>737794.24186</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1088305.5787</v>
+        <v>1093239.68922</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1413099.15686</v>
+        <v>1439421.63744</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1799035.22737</v>
+        <v>1800931.82852</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>2493301.98129</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2557362.31083</v>
+        <v>2561842.65807</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2913127.2887</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3017875.37551</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3176195.186</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>9195.18736</v>
+        <v>9195.187360000002</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>1092.5307</v>
@@ -1466,34 +1437,39 @@
         <v>2185.70265</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1378.90515</v>
+        <v>1419.18284</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>3481.59144</v>
+        <v>3508.96006</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>3315.56815</v>
+        <v>3358.20552</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>6633.80213</v>
+        <v>6638.25141</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>19233.05202</v>
+        <v>19231.84202</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>13148.87504</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>15635.96755</v>
+        <v>15719.52369</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>24250.79346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>24725.71845</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>24637.501</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>216262.19981</v>
@@ -1502,37 +1478,42 @@
         <v>246051.09456</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>320084.2018200001</v>
+        <v>320162.11991</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>389871.27479</v>
+        <v>389848.1263</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>578239.86051</v>
+        <v>578399.3036100001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>879413.14588</v>
+        <v>881695.9893399997</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1055108.77013</v>
+        <v>1065463.39515</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1265650.93173</v>
+        <v>1267895.57541</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1501759.58475</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1564002.90318</v>
+        <v>1567753.63204</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1743843.42476</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1784656.65732</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2107359.159</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>190739.03082</v>
@@ -1541,43 +1522,48 @@
         <v>207021.87195</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>266104.87869</v>
+        <v>266320.38598</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>325922.50096</v>
+        <v>326163.59404</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>461128.3925799999</v>
+        <v>461501.92948</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>658444.1288000001</v>
+        <v>660572.79576</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>808928.0043299999</v>
+        <v>818149.7278899999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>972046.3222199999</v>
+        <v>975363.3696900001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1160144.41771</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1282990.03253</v>
+        <v>1288970.16942</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1438073.04831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1482851.19789</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1616952.732</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>558.7706999999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>856.6297099999999</v>
+        <v>856.62971</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>469.02602</v>
@@ -1592,7 +1578,7 @@
         <v>5163.8465</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>10873.90414</v>
+        <v>10938.59552</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>9298.150890000001</v>
@@ -1604,13 +1590,18 @@
         <v>16750.00373</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>22495.16318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>22725.24566</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>23071.463</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>15891.12691</v>
@@ -1619,37 +1610,42 @@
         <v>17744.31856</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>23846.01229</v>
+        <v>23987.2447</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>26443.32777</v>
+        <v>26628.66476000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>42290.28895</v>
+        <v>42308.40761</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>65865.40007999999</v>
+        <v>66393.56157999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>89956.3575</v>
+        <v>90865.03435</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>113024.89683</v>
+        <v>113048.66557</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>132363.88508</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>145900.92865</v>
+        <v>146504.53854</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>187062.22481</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>193822.95652</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>198458.339</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>174289.13321</v>
@@ -1658,37 +1654,42 @@
         <v>188420.92368</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>241789.84038</v>
+        <v>241864.11526</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>297026.84963</v>
+        <v>297082.6057200001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>410807.81615</v>
+        <v>411163.23439</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>587414.8822199999</v>
+        <v>589015.3876799998</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>708097.7426900001</v>
+        <v>716346.09802</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>849723.2745000001</v>
+        <v>853016.55323</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1015404.81613</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1120339.10015</v>
+        <v>1125715.62715</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1228515.66032</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1266302.99571</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1395422.93</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>25523.16899</v>
@@ -1697,76 +1698,86 @@
         <v>39029.22261</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>53979.32313000001</v>
+        <v>53841.73393</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>63948.77383</v>
+        <v>63684.53226</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>117111.46793</v>
+        <v>116897.37413</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>220969.01708</v>
+        <v>221123.19358</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>246180.7658</v>
+        <v>247313.66726</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>293604.60951</v>
+        <v>292532.20572</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>341615.16704</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>281012.8706500001</v>
+        <v>278783.46262</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>305770.37645</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>301805.45943</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>490406.427</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>63196.76452</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>87626.52409000002</v>
+        <v>87626.52408999999</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>120458.7352</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>46944.57945</v>
+        <v>46944.60012</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>61043.29027</v>
+        <v>61043.52569</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>47607.35290999999</v>
+        <v>47637.23764000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>111945.51733</v>
+        <v>113031.60481</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>160272.43599</v>
+        <v>160824.26444</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>168211.97062</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>282299.05389</v>
+        <v>282344.96665</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>183780.88645</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>185372.5446</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>308135.214</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>12044.58982</v>
@@ -1799,13 +1810,18 @@
         <v>3388.97701</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>47587.64338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>47587.64337999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>8419.055</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>20513.45175</v>
@@ -1838,16 +1854,21 @@
         <v>8008.37651</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0.00444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>370.50723</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>5299.32</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4489.11067</v>
+        <v>4489.110669999999</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>3687.53124</v>
@@ -1859,34 +1880,39 @@
         <v>10641.07269</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4597.062529999999</v>
+        <v>4597.06253</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>7430.479689999999</v>
+        <v>7430.47969</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>8692.657369999999</v>
+        <v>9029.278249999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>12492.00246</v>
+        <v>12542.44623</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>23344.08986</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>18111.49003</v>
+        <v>18121.70167</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>22181.82454</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>22721.23497</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>23908.808</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>455.7690899999999</v>
+        <v>455.76909</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>246.90599</v>
@@ -1913,16 +1939,21 @@
         <v>647.5991700000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>6086.229240000001</v>
+        <v>6086.22924</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1276.45151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1257.0625</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>2497.213</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>167.87703</v>
@@ -1955,16 +1986,21 @@
         <v>2113.424</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1751.49144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1820.67382</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>6377.227</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>700.6725099999999</v>
+        <v>700.67251</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>2605.43782</v>
@@ -1973,19 +2009,19 @@
         <v>24663.96774</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>501.2171999999999</v>
+        <v>501.2172</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>705.8875499999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>432.4889900000001</v>
+        <v>432.48899</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>900.24401</v>
+        <v>900.44998</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>473.40799</v>
+        <v>714.6696500000002</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1796.38498</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>2365.3339</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>4791.43</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>13995.99249</v>
@@ -2015,31 +2056,36 @@
         <v>12034.76081</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>27372.55822</v>
+        <v>27372.78818</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>29234.29308</v>
+        <v>29253.92071</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>51637.62256</v>
+        <v>52231.69536</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>66061.114</v>
+        <v>66404.47172</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>78710.14439999999</v>
+        <v>78710.14439999998</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>206859.06924</v>
+        <v>206915.86817</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>87667.03803</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>87798.98938</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>206930.424</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>60.57453999999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>400.22102</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>2321.97</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1360.5249</v>
@@ -2096,7 +2147,7 @@
         <v>0.58</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>25.31452</v>
+        <v>25.31452000000001</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>41.29848</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>1790.49924</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>225.85</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>9408.201719999999</v>
@@ -2129,73 +2185,83 @@
         <v>11466.01899</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>14219.15762</v>
+        <v>14219.17829</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>13323.32583</v>
+        <v>13323.33129</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>9664.44335</v>
+        <v>9674.700449999998</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>11475.26202</v>
+        <v>11630.44985</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>18611.56187</v>
+        <v>18528.32717</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>26919.35001</v>
+        <v>26919.35001000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>16049.53461</v>
+        <v>16028.4368</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>18760.37895</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>19260.37916</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>47363.917</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>23845.19692999999</v>
+        <v>23845.19693</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>48012.08351999999</v>
+        <v>48012.08352</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>32754.99188</v>
+        <v>32782.14575</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>33685.8298</v>
+        <v>33687.41367</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>37038.21762</v>
+        <v>37038.2604</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>43972.52354</v>
+        <v>43983.77692</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>57900.15520999999</v>
+        <v>58317.25145</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>73821.08454</v>
+        <v>74335.37715</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>89622.34345</v>
+        <v>89622.34345000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>187185.71628</v>
+        <v>187239.49628</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>98774.79351</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>98948.31912999999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>213955.207</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>339.97921</v>
@@ -2207,16 +2273,16 @@
         <v>270.41952</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>376.6279000000001</v>
+        <v>376.6279</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>389.21871</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>823.62603</v>
+        <v>823.62928</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1237.11105</v>
+        <v>1240.21597</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>786.58352</v>
@@ -2228,13 +2294,18 @@
         <v>2091.89994</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1140.73862</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1141.26911</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2096.031</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>597.37202</v>
@@ -2255,10 +2326,10 @@
         <v>2317.53496</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>9250.652779999999</v>
+        <v>9268.924540000002</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>7904.61111</v>
+        <v>7983.32142</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>8975.761030000001</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>10861.59655</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>14462.345</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>233.04038</v>
@@ -2294,7 +2370,7 @@
         <v>67.65531999999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>34.26855</v>
+        <v>34.6658</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>15.43325</v>
@@ -2303,16 +2379,21 @@
         <v>1633.50021</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>571.3074</v>
+        <v>571.3073999999999</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>472.91679</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>719.1420000000001</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>14324.95189</v>
@@ -2324,34 +2405,39 @@
         <v>23686.22682</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>24239.4687</v>
+        <v>24241.05083</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>28822.92624</v>
+        <v>28822.96902</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>33631.71467</v>
+        <v>33642.96478</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>39501.12935</v>
+        <v>39890.56477</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>55441.28259</v>
+        <v>55854.97166</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>62858.13375</v>
+        <v>62858.13374999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>170817.49463</v>
+        <v>170869.8304</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>82235.57597000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>82377.46067</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>167308.679</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2.72301</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>378.6544699999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>921.12</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>121.52729</v>
@@ -2425,53 +2516,63 @@
       <c r="M42" s="48" t="n">
         <v>425.58918</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>366.693</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>8225.603130000001</v>
+        <v>8225.60313</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>32983.73037</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>8122.35726</v>
+        <v>8149.51113</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>6882.676600000001</v>
+        <v>6882.678339999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>6014.997670000001</v>
+        <v>6014.997669999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>6431.314209999999</v>
+        <v>6431.314230000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>7697.51406</v>
+        <v>7703.40095</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>9417.170749999997</v>
+        <v>9439.063979999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>14907.44978</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2650.38013</v>
+        <v>2651.82436</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3259.72193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3290.83236</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>28081.197</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>8270.17282</v>
+        <v>8270.172820000002</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>10949.09807</v>
@@ -2483,34 +2584,39 @@
         <v>13511.85525</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>62656.82534999999</v>
+        <v>62693.76907000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>25391.91515</v>
+        <v>25557.68971</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>92607.32077000001</v>
+        <v>92714.77913</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>118155.43264</v>
+        <v>118156.93188</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>137291.0501</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>73929.61555000002</v>
+        <v>74006.01979999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>76074.86446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>77073.64438000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>96529.83</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>7914.529109999999</v>
+        <v>7914.52911</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>10553.85438</v>
@@ -2522,31 +2628,36 @@
         <v>12846.06936</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>59199.64501</v>
+        <v>59236.58873</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>22198.84298</v>
+        <v>22363.99503</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>58548.20711</v>
+        <v>58655.66547</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>70535.93429999999</v>
+        <v>70537.43354000001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>120911.711</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>55883.72406</v>
+        <v>55960.12831</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>62192.33203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>63156.67935</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>81913.789</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>355.6437099999999</v>
@@ -2558,19 +2669,19 @@
         <v>311.70035</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>665.7858899999999</v>
+        <v>665.78589</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>3457.18034</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>3193.07217</v>
+        <v>3193.69468</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>34059.11366</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>47619.49833999999</v>
+        <v>47619.49834</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>16379.3391</v>
@@ -2579,13 +2690,18 @@
         <v>18045.89149</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>13882.53243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>13916.96503</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>14616.041</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>56604.56376</v>
@@ -2594,76 +2710,86 @@
         <v>67694.56511</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>126526.84682</v>
+        <v>126362.10375</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>63695.66823</v>
+        <v>63429.86346</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>78459.71523</v>
+        <v>78208.87035000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>199211.9313</v>
+        <v>199218.96459</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>207618.80715</v>
+        <v>209313.24149</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>261900.52832</v>
+        <v>260864.16113</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>282913.74411</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>302196.59271</v>
+        <v>299882.9131900001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>314701.60493</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>311156.04052</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>488056.604</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>9458.198520000002</v>
+        <v>9458.19852</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>5006.592479999999</v>
+        <v>5006.59248</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>11351.79181</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>8155.975769999999</v>
+        <v>8166.12834</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>10640.99868</v>
+        <v>10658.38006</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>27328.2719</v>
+        <v>27353.46269</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>29278.18776</v>
+        <v>29363.9985</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>27393.01488</v>
+        <v>27520.43263</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>83779.20564999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>106482.43116</v>
+        <v>106607.37405</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>57448.52317</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>67184.96773</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>80921.149</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>125.28298</v>
@@ -2684,28 +2810,33 @@
         <v>203.4342</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>314.7909399999999</v>
+        <v>314.79094</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>910.5938200000001</v>
+        <v>998.5795800000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>749.05016</v>
+        <v>749.0501599999999</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>2102.13017</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1290.83371</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1291.85707</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3784.652</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>9332.915540000002</v>
+        <v>9332.91554</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>4615.540379999999</v>
@@ -2714,34 +2845,39 @@
         <v>11312.67018</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>8056.3673</v>
+        <v>8066.51987</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>9203.95527</v>
+        <v>9221.336650000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>27124.8377</v>
+        <v>27150.02849</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>28963.39682</v>
+        <v>29049.20756</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>26482.42106</v>
+        <v>26521.85305</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>83030.15548999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>104380.30099</v>
+        <v>104505.24388</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>56157.68945999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>65893.11065999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>77136.497</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>10053.37436</v>
@@ -2750,37 +2886,42 @@
         <v>29106.50238</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>90350.5422</v>
+        <v>90350.54219999998</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>10889.02893</v>
+        <v>10896.11398</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>11181.95348</v>
+        <v>11226.73302</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>59632.66039</v>
+        <v>59689.825</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>21410.57848</v>
+        <v>21543.40971</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>111299.9047</v>
+        <v>111467.96261</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>48862.94703</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>115037.51287</v>
+        <v>115305.82167</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>49778.68424</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>54128.25548000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>82227.553</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>110.3714</v>
@@ -2813,13 +2954,18 @@
         <v>587.68506</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>327.74869</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>327.7486900000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>572.895</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>518.6200200000001</v>
@@ -2834,31 +2980,36 @@
         <v>1089.1321</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>833.71655</v>
+        <v>833.7165500000001</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>1957.94621</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2063.9025</v>
+        <v>2066.47717</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2241.1981</v>
+        <v>2313.029689999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>1008.45993</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1339.29224</v>
+        <v>1339.47184</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5169.48826</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5189.259049999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>5553.538</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>9424.38294</v>
@@ -2867,76 +3018,86 @@
         <v>28287.97073</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>89689.07527</v>
+        <v>89689.07527000002</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>9425.036030000001</v>
+        <v>9432.121080000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>10040.61106</v>
+        <v>10085.3906</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>57526.25551</v>
+        <v>57583.42012</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>19207.02566</v>
+        <v>19337.28222</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>108780.04267</v>
+        <v>108876.26899</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>47628.86612000001</v>
+        <v>47628.86612</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>113110.53557</v>
+        <v>113378.66477</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>44281.44729</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>48611.24773999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>76101.12</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>56009.38791999999</v>
+        <v>56009.38792</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>43594.65520999999</v>
+        <v>43594.65521</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>47528.09642999999</v>
+        <v>47363.35336</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>60962.61507000001</v>
+        <v>60699.87782</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>77918.76043000001</v>
+        <v>77640.51738999998</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>166907.54281</v>
+        <v>166882.60228</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>215486.41643</v>
+        <v>217133.83028</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>177993.6385</v>
+        <v>176916.63115</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>317830.00273</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>293641.511</v>
+        <v>291184.4655699999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>322371.44386</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>324212.75277</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>486750.2</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>10217.32303</v>
@@ -2951,31 +3112,36 @@
         <v>16902.27257</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>28780.18917</v>
+        <v>28781.36153</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>45070.61056</v>
+        <v>45110.81207</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>52931.58185</v>
+        <v>53098.4759</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>64320.48882999999</v>
+        <v>64387.49084999999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>71653.77909</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>81308.29221</v>
+        <v>81421.44657000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>95785.93269</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>97373.15376999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>133966</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>45792.06489</v>
@@ -2984,34 +3150,37 @@
         <v>32384.23215</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>29073.23745</v>
+        <v>28908.49438</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>44060.3425</v>
+        <v>43797.60525</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>49138.57125999999</v>
+        <v>48859.15586</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>121836.93225</v>
+        <v>121771.79021</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>162554.83458</v>
+        <v>164035.35438</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>113673.14967</v>
+        <v>112529.1403</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>246176.22364</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>212333.21879</v>
+        <v>209763.019</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>226585.51117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>226839.599</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>352784.2</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2253</v>
@@ -3038,34 +3210,37 @@
         <v>2459</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3090</v>
+        <v>3092</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3861</v>
+        <v>3866</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4517</v>
+        <v>4532</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4985</v>
+        <v>5030</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>5512</v>
+        <v>5538</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>6233</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>6266</v>
+        <v>6458</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>6441</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>6836</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7169</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>